--- a/avgWhoScoredmundial.xlsx
+++ b/avgWhoScoredmundial.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,14 +498,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alex Sandro</t>
+          <t>António Silva</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>55.05277777777778</v>
+        <v>32.74166666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>88.5611111111111</v>
+        <v>71.48888888888888</v>
       </c>
       <c r="E4" t="n">
         <v>36</v>
@@ -517,17 +517,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alisson</t>
+          <t>Bernardo Silva</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10.37142857142857</v>
+        <v>54.18152173913043</v>
       </c>
       <c r="D5" t="n">
-        <v>54.05714285714286</v>
+        <v>50.67282608695652</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Casemiro</t>
+          <t>Bruno Fernandes</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49.8421052631579</v>
+        <v>58.21428571428572</v>
       </c>
       <c r="D6" t="n">
-        <v>63.81578947368421</v>
+        <v>42.44761904761904</v>
       </c>
       <c r="E6" t="n">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -555,17 +555,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fred</t>
+          <t>Cristiano Ronaldo</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>51.40476190476191</v>
+        <v>64.74473684210527</v>
       </c>
       <c r="D7" t="n">
-        <v>45.57142857142857</v>
+        <v>58.59473684210526</v>
       </c>
       <c r="E7" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
@@ -574,17 +574,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lucas Paquetá</t>
+          <t>Danilo Pereira</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>59.61515151515152</v>
+        <v>39.90434782608695</v>
       </c>
       <c r="D8" t="n">
-        <v>77.96363636363637</v>
+        <v>71.7</v>
       </c>
       <c r="E8" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -593,17 +593,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Marquinhos</t>
+          <t>Diogo Costa</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>46.0859649122807</v>
+        <v>10.34761904761905</v>
       </c>
       <c r="D9" t="n">
-        <v>62.16666666666666</v>
+        <v>49.74761904761905</v>
       </c>
       <c r="E9" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -612,17 +612,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Raphinha</t>
+          <t>Diogo Dalot</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>63.25238095238095</v>
+        <v>49.42954545454545</v>
       </c>
       <c r="D10" t="n">
-        <v>15.17619047619048</v>
+        <v>8.393181818181818</v>
       </c>
       <c r="E10" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -631,17 +631,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Richarlison</t>
+          <t>Gonçalo Ramos</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>66.55</v>
+        <v>54.32000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>44</v>
+        <v>39.02</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -650,17 +650,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Thiago Silva</t>
+          <t>João Cancelo</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>41.25416666666667</v>
+        <v>51.56404494382022</v>
       </c>
       <c r="D12" t="n">
-        <v>53.39166666666667</v>
+        <v>42.88988764044944</v>
       </c>
       <c r="E12" t="n">
-        <v>48</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
@@ -669,17 +669,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Vinícius Júnior</t>
+          <t>João Félix</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>63.95555555555556</v>
+        <v>61.56511627906977</v>
       </c>
       <c r="D13" t="n">
-        <v>86.56666666666666</v>
+        <v>79.0093023255814</v>
       </c>
       <c r="E13" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
@@ -688,17 +688,207 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Éder Militão</t>
+          <t>João Mário</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>52.0625</v>
+        <v>58.92727272727273</v>
       </c>
       <c r="D14" t="n">
-        <v>21.7375</v>
+        <v>87.61818181818181</v>
       </c>
       <c r="E14" t="n">
-        <v>32</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Matheus Nunes</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>52.2909090909091</v>
+      </c>
+      <c r="D15" t="n">
+        <v>47.50909090909091</v>
+      </c>
+      <c r="E15" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nuno Mendes</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>55.12068965517241</v>
+      </c>
+      <c r="D16" t="n">
+        <v>91.16551724137932</v>
+      </c>
+      <c r="E16" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Otávio</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>53.80714285714286</v>
+      </c>
+      <c r="D17" t="n">
+        <v>57.30714285714286</v>
+      </c>
+      <c r="E17" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Pepe</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>32.96666666666667</v>
+      </c>
+      <c r="D18" t="n">
+        <v>28.73194444444444</v>
+      </c>
+      <c r="E18" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Raphaël Guerreiro</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>57.97358490566037</v>
+      </c>
+      <c r="D19" t="n">
+        <v>88.05849056603775</v>
+      </c>
+      <c r="E19" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Ricardo Horta</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>53.56666666666666</v>
+      </c>
+      <c r="D20" t="n">
+        <v>14.93333333333333</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Rúben Dias</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>34.26888888888889</v>
+      </c>
+      <c r="D21" t="n">
+        <v>53.56222222222222</v>
+      </c>
+      <c r="E21" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Rúben Neves</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>45.105</v>
+      </c>
+      <c r="D22" t="n">
+        <v>50.45399999999999</v>
+      </c>
+      <c r="E22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Vitinha</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>51.89666666666667</v>
+      </c>
+      <c r="D23" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>William Carvalho</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>41.83934426229508</v>
+      </c>
+      <c r="D24" t="n">
+        <v>54.78688524590164</v>
+      </c>
+      <c r="E24" t="n">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
